--- a/trunk/bug.xlsx
+++ b/trunk/bug.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>人工选择宝贝时，搜索不要对大小写敏感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工选择宝贝时，每点击一次搜索，搜索结果就会复制一份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -315,43 +323,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -427,13 +399,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -474,13 +446,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -501,6 +473,53 @@
         <a:xfrm>
           <a:off x="6238875" y="2714625"/>
           <a:ext cx="7686675" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6238875" y="1628775"/>
+          <a:ext cx="4505325" cy="3771900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -857,10 +876,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -874,7 +893,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -886,69 +905,69 @@
         <v>40720</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
         <v>40720</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4">
-        <v>40720</v>
+        <v>40712</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4">
-        <v>40712</v>
+        <v>40720</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4">
         <v>40720</v>
@@ -976,44 +995,44 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>40712</v>
+        <v>40720</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
-        <v>40720</v>
+        <v>40712</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
@@ -1027,10 +1046,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
@@ -1044,10 +1063,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>33</v>
@@ -1059,12 +1078,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
+    <row r="15" spans="1:5" ht="57">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
@@ -1078,10 +1097,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
@@ -1095,7 +1114,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
@@ -1112,7 +1131,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
@@ -1127,17 +1146,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4">
+        <v>40720</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E17">
+  <autoFilter ref="A1:E18">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <sortState ref="A2:E18">
-      <sortCondition descending="1" ref="C1:C17"/>
+    <sortState ref="A2:E19">
+      <sortCondition descending="1" ref="C1:C18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/bug.xlsx
+++ b/trunk/bug.xlsx
@@ -827,7 +827,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -859,27 +859,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
-        <v>40712</v>
+        <v>40720</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -888,69 +888,69 @@
         <v>40720</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <v>40720</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>40720</v>
+        <v>40712</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4">
-        <v>40712</v>
+        <v>40720</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>40720</v>
@@ -961,64 +961,64 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4">
         <v>40720</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4">
         <v>40720</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>40720</v>
+        <v>40712</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4">
         <v>40712</v>
@@ -1173,7 +1173,7 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/bug.xlsx
+++ b/trunk/bug.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,6 +200,26 @@
   </si>
   <si>
     <t>hold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C店价格显示时小数点有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在应用里增加“最近启用店铺”列表，刺激用户启用淘金宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +343,19 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -824,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1163,6 +1195,40 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>40727</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>40727</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E18">
     <filterColumn colId="1"/>
@@ -1173,7 +1239,7 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/bug.xlsx
+++ b/trunk/bug.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随机推荐3个 改为 取过去一个月成交金额最多的3个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,7 +67,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nick后面的感叹号改为中文的感叹号！</t>
+    <t>open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建模板时，点“保存并预览”经常出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史操作的"操作时间"存在8个小时时差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页和意见建议反馈 width 和 其他页面不一致，页面切换时老是在抖动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史操作详情页面缺少分页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工选择宝贝时，搜索不要对大小写敏感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工选择宝贝时，每点击一次搜索，搜索结果就会复制一份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C店价格显示时小数点有问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -79,147 +119,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>在应用里增加“最近启用店铺”列表，刺激用户启用淘金宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为何同一个宝贝里能插入3个猜你喜欢（最多两个模板啊）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>open</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>傻鱼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问app.23201.com要跳转到app.23201.com/top/index.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要自定义宝贝请点击“创建模板”，单引号需要改为中文双引号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作确认时，“关闭”和“取消”重复，去掉“取消”吧；另外，中间换行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预览时，宝贝图片和宝贝标题的URL都是错的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建模板时，点“保存并预览”经常出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史操作的"操作时间"存在8个小时时差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入到宝贝详情页的图片没连接，标题的链接是错的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧导航二级菜单样式丢了？现在好丑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“历史操作详情”少打了1个字：“史”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页和意见建议反馈 width 和 其他页面不一致，页面切换时老是在抖动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>“正在禁用”或“正在启用”的“确定”和"关闭"均去掉，给用户操作越少越好，文案改为：
-届时我们会为您自动刷新页面。
-您也可以点击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刷新页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行手动刷新。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史操作详情页面缺少分页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工选择宝贝时，搜索不要对大小写敏感</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工选择宝贝时，每点击一次搜索，搜索结果就会复制一份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C店价格显示时小数点有问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在应用里增加“最近启用店铺”列表，刺激用户启用淘金宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李杰</t>
+    <t>文广</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -245,13 +173,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -343,31 +264,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -437,7 +334,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -478,13 +375,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -531,7 +428,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -856,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -877,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -891,33 +788,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4">
-        <v>40720</v>
+        <v>40734</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4">
-        <v>40720</v>
+        <v>40734</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -925,19 +822,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>40720</v>
+        <v>40734</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -945,301 +842,148 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>40712</v>
+        <v>40734</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4">
-        <v>40720</v>
+        <v>40734</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
-        <v>40720</v>
+        <v>40734</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4">
-        <v>40720</v>
+        <v>40734</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4">
         <v>40720</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>40712</v>
+        <v>40727</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
-        <v>40712</v>
+        <v>40720</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>40720</v>
+        <v>40712</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4">
-        <v>40720</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4">
-        <v>40720</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="57">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4">
-        <v>40720</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4">
-        <v>40720</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4">
-        <v>40720</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4">
-        <v>40720</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="4">
-        <v>40720</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
-        <v>40727</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4">
-        <v>40727</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E18">
+  <autoFilter ref="A1:E12">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <sortState ref="A2:E19">
+    <sortState ref="A2:E22">
       <sortCondition descending="1" ref="C1:C18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="open">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="open">
       <formula>NOT(ISERROR(SEARCH("open",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
